--- a/KAG 2016-17/Karnataka_District_Adjacency_File.xlsx
+++ b/KAG 2016-17/Karnataka_District_Adjacency_File.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27316"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8th Sem\PE\KAG 2016-17\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_59E57A4C851DEA28CABE645E1E44C98691B9AE33" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C12A8718-60E9-4F5C-A298-B1FE7D8F8C9A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>District_Code</t>
   </si>
@@ -221,16 +217,13 @@
   </si>
   <si>
     <t>29,20,22,25</t>
-  </si>
-  <si>
-    <t>Vijayanagara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -247,12 +240,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFEEFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -281,14 +268,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,20 +489,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -860,27 +844,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30278793-776d-414c-8b7f-27717e999cd7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="397e1801-2424-4f26-86c4-ea9f623f8b92" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1115,48 +1090,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30278793-776d-414c-8b7f-27717e999cd7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="397e1801-2424-4f26-86c4-ea9f623f8b92" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{093D8632-E48C-40A3-B90B-68ABB2C53446}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="30278793-776d-414c-8b7f-27717e999cd7"/>
-    <ds:schemaRef ds:uri="397e1801-2424-4f26-86c4-ea9f623f8b92"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80740F4C-6106-4467-BC9A-481DDEBBE2FF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25798ACE-A3B9-4AFD-AB6C-3CFDEDCB396C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="30278793-776d-414c-8b7f-27717e999cd7"/>
-    <ds:schemaRef ds:uri="397e1801-2424-4f26-86c4-ea9f623f8b92"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25798ACE-A3B9-4AFD-AB6C-3CFDEDCB396C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80740F4C-6106-4467-BC9A-481DDEBBE2FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{093D8632-E48C-40A3-B90B-68ABB2C53446}"/>
 </file>